--- a/backend/excel_templates/yandex_template.xlsx
+++ b/backend/excel_templates/yandex_template.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Campaign</t>
   </si>
@@ -26,16 +26,25 @@
     <t>Criterion Type</t>
   </si>
   <si>
-    <t>Headline 1</t>
+    <t>Кампания</t>
   </si>
   <si>
-    <t>Headline 2</t>
+    <t>Группа</t>
   </si>
   <si>
-    <t>Description 1</t>
+    <t>Заголовок 1</t>
   </si>
   <si>
-    <t>Final URL</t>
+    <t>Заголовок 2</t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
+  </si>
+  <si>
+    <t>Отображаемая ссылка</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1375,28 +1384,31 @@
     <col min="3" max="3" width="21.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="41" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="4" customWidth="1"/>
+    <col min="6" max="7" width="41" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="14.05" customHeight="1">
@@ -1406,6 +1418,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="3"/>
@@ -1414,6 +1427,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="3"/>
@@ -1422,6 +1436,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="3"/>
@@ -1430,6 +1445,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="3"/>
@@ -1438,6 +1454,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="3"/>
@@ -1446,6 +1463,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="3"/>
@@ -1454,6 +1472,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="3"/>
@@ -1462,6 +1481,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="3"/>
@@ -1470,6 +1490,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
